--- a/samples/Popup_Only/csv_file__address_four_fields/Points.xlsx
+++ b/samples/Popup_Only/csv_file__address_four_fields/Points.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupert\Documents\ArcGIS Online\Templates\Story Maps templates\Story Map Shortlist\samples\Popup_Only\csv_file__address_four_fields\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19152" windowHeight="12336"/>
   </bookViews>
@@ -14,26 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>Website</t>
   </si>
   <si>
-    <t>Desc1</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Short_Desc</t>
   </si>
   <si>
-    <t>Image_URL</t>
-  </si>
-  <si>
     <t>http://www.lulupalmsprings.com/</t>
   </si>
   <si>
@@ -326,6 +319,15 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Pic_URL</t>
   </si>
 </sst>
 </file>
@@ -876,6 +878,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -923,7 +928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,7 +963,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,568 +1172,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="113.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="113.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="1">
+        <v>97</v>
+      </c>
+      <c r="F2" s="1">
         <v>92262</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="1">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1">
         <v>92262</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
+    <row r="4" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="1">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1">
         <v>92262</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
+    <row r="5" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="1">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1">
         <v>92262</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
+    <row r="6" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="1">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1">
         <v>92262</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
+    <row r="7" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="1">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1">
         <v>92262</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
+    <row r="8" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="1">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1">
         <v>92262</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
+    <row r="9" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="1">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1">
         <v>92262</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1">
+        <v>92262</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1">
         <v>92262</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="1">
-        <v>92262</v>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="1">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1">
         <v>92264</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="13" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
+    <row r="13" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="1">
         <v>92264</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="14" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
+    <row r="14" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1">
         <v>92264</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="15" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
+    <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1">
+        <v>92264</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="1">
+    </row>
+    <row r="16" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1">
         <v>92264</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="1">
-        <v>92264</v>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
+    <row r="17" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="1">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1">
         <v>92262</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
